--- a/0 - Livrables/Audit-SEO.xlsx
+++ b/0 - Livrables/Audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Samuel/Desktop/P4_Prigent_Samuel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CD92F1-1134-EF46-8A21-74FFF3D7C583}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F45C90-C155-AB48-9C7C-EAB790FD53B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="620" windowWidth="28760" windowHeight="17380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="122">
   <si>
     <t>Catégorie</t>
   </si>
@@ -357,6 +357,69 @@
   <si>
     <t>Bug de style résolus</t>
   </si>
+  <si>
+    <t>Alt</t>
+  </si>
+  <si>
+    <t>Mettre des alts sur les images précis et ne pas copier coller dans toutes les images le mêmes textes</t>
+  </si>
+  <si>
+    <t>Eviter les textes cachés car peu être perçu par le bot de google comme une mauvaise tentative dans le but d'augmenter son référencement induisant un maluse par ce bot</t>
+  </si>
+  <si>
+    <t>Compression</t>
+  </si>
+  <si>
+    <t>Minimifier</t>
+  </si>
+  <si>
+    <t>Minifier le css et le javascript en enlevenat les espaces et retour à la ligne permet d'améliorer la vitesse à laquelles ces fichiers seront lu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compresser les images et utiliser le source set pour charger des images différentes en fonction de la largeur de l'écran peu permettre de réduire de 90% la taille d'un dossier images.
+</t>
+  </si>
+  <si>
+    <t>defer</t>
+  </si>
+  <si>
+    <t>Utiliser defer sur des script javascript permet à la page de charger le style si ces scripts ne sont pas entièrement chargés</t>
+  </si>
+  <si>
+    <t>Constrate</t>
+  </si>
+  <si>
+    <t>Utiliser un logiciels pour vérifier que les contrastes soit valides au WCAG pour rendre le site accessible au plus grand nombre</t>
+  </si>
+  <si>
+    <t>Tabulation</t>
+  </si>
+  <si>
+    <t>Liens</t>
+  </si>
+  <si>
+    <t>Avoir une navigation possible et logique avec le clavier via la touche tab avec un changement de style lorsque l'élément est :focus avec un encadrement ou autre</t>
+  </si>
+  <si>
+    <t>Eviter les liens répétitifs sur la même pages car plus il y a de liens identique plus l'importance de ce liens diminue pour le référencement.</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Avoir un titre pour chaque page html</t>
+  </si>
+  <si>
+    <t>Metadescription 
+&amp; Keywords</t>
+  </si>
+  <si>
+    <t>Avoir une metadescription avec des phrases claires allant à l'essentiel sans être répétitif.
+Et pour la balise de keywords utiliser des verbes d'actions différents sans répéter les mêmes mots.</t>
+  </si>
+  <si>
+    <t>Textes cachés</t>
+  </si>
 </sst>
 </file>
 
@@ -495,7 +558,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -542,7 +605,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -571,6 +633,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -813,7 +881,7 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>59</v>
       </c>
       <c r="E1" s="2"/>
@@ -849,7 +917,7 @@
       <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="60" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="25" t="s">
         <v>61</v>
       </c>
       <c r="B4" s="14" t="s">
@@ -859,28 +927,28 @@
         <v>40</v>
       </c>
       <c r="D4" s="15"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
     </row>
     <row r="5" spans="1:23" ht="40" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="25" t="s">
         <v>61</v>
       </c>
       <c r="B5" s="14" t="s">
@@ -890,28 +958,28 @@
         <v>41</v>
       </c>
       <c r="D5" s="15"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
     </row>
     <row r="6" spans="1:23" ht="40" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="25" t="s">
         <v>61</v>
       </c>
       <c r="B6" s="14" t="s">
@@ -919,28 +987,28 @@
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
     </row>
     <row r="7" spans="1:23" ht="40" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="19" t="s">
         <v>61</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -951,7 +1019,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="80" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>61</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -965,7 +1033,7 @@
       </c>
     </row>
     <row r="9" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>61</v>
       </c>
       <c r="B9" s="13" t="s">
@@ -977,7 +1045,7 @@
       <c r="D9" s="12"/>
     </row>
     <row r="10" spans="1:23" ht="20" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="19" t="s">
         <v>61</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -988,7 +1056,7 @@
       </c>
     </row>
     <row r="11" spans="1:23" ht="20" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="19" t="s">
         <v>61</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -999,7 +1067,7 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="80" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="19" t="s">
         <v>61</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -1013,7 +1081,7 @@
       </c>
     </row>
     <row r="13" spans="1:23" s="6" customFormat="1" ht="40" x14ac:dyDescent="0.2">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="19" t="s">
         <v>88</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -1025,7 +1093,7 @@
       <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="20"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="12"/>
@@ -1039,7 +1107,7 @@
       <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:23" ht="40" x14ac:dyDescent="0.2">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="22" t="s">
         <v>48</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -1050,7 +1118,7 @@
       </c>
     </row>
     <row r="17" spans="1:16384" ht="60" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="22" t="s">
         <v>52</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -1064,7 +1132,7 @@
       </c>
     </row>
     <row r="18" spans="1:16384" ht="40" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="22" t="s">
         <v>48</v>
       </c>
       <c r="B18" s="9" t="s">
@@ -1075,7 +1143,7 @@
       </c>
     </row>
     <row r="19" spans="1:16384" ht="20" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="22" t="s">
         <v>48</v>
       </c>
       <c r="B19" s="9" t="s">
@@ -1086,7 +1154,7 @@
       </c>
     </row>
     <row r="20" spans="1:16384" ht="60" x14ac:dyDescent="0.2">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="28" t="s">
         <v>48</v>
       </c>
       <c r="B20" s="14" t="s">
@@ -1096,28 +1164,28 @@
         <v>91</v>
       </c>
       <c r="D20" s="15"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
     </row>
     <row r="21" spans="1:16384" ht="40" x14ac:dyDescent="0.2">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="24" t="s">
         <v>48</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -1128,7 +1196,7 @@
       </c>
     </row>
     <row r="22" spans="1:16384" ht="40" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="24" t="s">
         <v>48</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -1139,7 +1207,7 @@
       </c>
     </row>
     <row r="23" spans="1:16384" ht="40" x14ac:dyDescent="0.2">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="24" t="s">
         <v>48</v>
       </c>
       <c r="B23" s="9" t="s">
@@ -1150,7 +1218,7 @@
       </c>
     </row>
     <row r="24" spans="1:16384" ht="40" x14ac:dyDescent="0.2">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="24" t="s">
         <v>48</v>
       </c>
       <c r="B24" s="9" t="s">
@@ -1161,7 +1229,7 @@
       </c>
     </row>
     <row r="25" spans="1:16384" ht="20" x14ac:dyDescent="0.2">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="24" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="9" t="s">
@@ -1171,8 +1239,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:16384" ht="60" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="s">
+    <row r="26" spans="1:16384" ht="40" x14ac:dyDescent="0.2">
+      <c r="A26" s="22" t="s">
         <v>48</v>
       </c>
       <c r="B26" s="9" t="s">
@@ -1183,7 +1251,7 @@
       </c>
     </row>
     <row r="27" spans="1:16384" x14ac:dyDescent="0.2">
-      <c r="A27" s="23"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
     </row>
@@ -17576,7 +17644,7 @@
       <c r="XFD28" s="10"/>
     </row>
     <row r="29" spans="1:16384" ht="40" x14ac:dyDescent="0.2">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="26" t="s">
         <v>86</v>
       </c>
       <c r="B29" s="9" t="s">
@@ -17587,7 +17655,7 @@
       </c>
     </row>
     <row r="30" spans="1:16384" ht="40" x14ac:dyDescent="0.2">
-      <c r="A30" s="27" t="s">
+      <c r="A30" s="26" t="s">
         <v>86</v>
       </c>
       <c r="B30" s="9" t="s">
@@ -17598,7 +17666,7 @@
       </c>
     </row>
     <row r="31" spans="1:16384" ht="40" x14ac:dyDescent="0.2">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="26" t="s">
         <v>86</v>
       </c>
       <c r="B31" s="9" t="s">
@@ -17609,7 +17677,7 @@
       </c>
     </row>
     <row r="32" spans="1:16384" ht="60" x14ac:dyDescent="0.2">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="26" t="s">
         <v>86</v>
       </c>
       <c r="B32" s="9" t="s">
@@ -17632,7 +17700,7 @@
       <c r="C34" s="6"/>
     </row>
     <row r="35" spans="1:4" s="8" customFormat="1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="21" t="s">
         <v>47</v>
       </c>
       <c r="B35" s="9" t="s">
@@ -17644,7 +17712,7 @@
       <c r="D35" s="12"/>
     </row>
     <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="21" t="s">
         <v>70</v>
       </c>
       <c r="B36" s="13" t="s">
@@ -17655,7 +17723,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="140" x14ac:dyDescent="0.2">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="21" t="s">
         <v>71</v>
       </c>
       <c r="B37" s="9" t="s">
@@ -17666,7 +17734,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="140" x14ac:dyDescent="0.2">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="21" t="s">
         <v>70</v>
       </c>
       <c r="B38" s="9" t="s">
@@ -17677,7 +17745,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="21" t="s">
         <v>66</v>
       </c>
       <c r="B39" s="9" t="s">
@@ -17688,7 +17756,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="80" x14ac:dyDescent="0.2">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="21" t="s">
         <v>68</v>
       </c>
       <c r="B40" s="9" t="s">
@@ -17699,7 +17767,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="40" x14ac:dyDescent="0.2">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="21" t="s">
         <v>70</v>
       </c>
       <c r="B41" s="9" t="s">
@@ -17710,7 +17778,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="40" x14ac:dyDescent="0.2">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="21" t="s">
         <v>70</v>
       </c>
       <c r="B42" s="9" t="s">
@@ -17721,7 +17789,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="21" t="s">
         <v>70</v>
       </c>
       <c r="B43" s="9" t="s">
@@ -17732,7 +17800,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="40" x14ac:dyDescent="0.2">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="21" t="s">
         <v>70</v>
       </c>
       <c r="B44" s="9" t="s">
@@ -17743,7 +17811,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A45" s="24" t="s">
+      <c r="A45" s="23" t="s">
         <v>47</v>
       </c>
       <c r="B45" s="9" t="s">
@@ -17754,7 +17822,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="80" x14ac:dyDescent="0.2">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="23" t="s">
         <v>47</v>
       </c>
       <c r="B46" s="9" t="s">
@@ -17765,7 +17833,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="40" x14ac:dyDescent="0.2">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="21" t="s">
         <v>70</v>
       </c>
       <c r="B47" s="9" t="s">
@@ -17776,7 +17844,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="21" t="s">
         <v>65</v>
       </c>
       <c r="B48" s="9" t="s">
@@ -17787,7 +17855,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="21" t="s">
         <v>65</v>
       </c>
       <c r="B49" s="9" t="s">
@@ -17798,22 +17866,22 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="22"/>
+      <c r="A50" s="21"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="22"/>
+      <c r="A51" s="21"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="22"/>
+      <c r="A52" s="21"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="22"/>
+      <c r="A53" s="21"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
     </row>
@@ -18258,14 +18326,14 @@
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="88.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="116.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -18298,75 +18366,115 @@
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
     </row>
-    <row r="2" spans="1:22" ht="23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
+      <c r="B2" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>103</v>
+      </c>
     </row>
-    <row r="3" spans="1:22" ht="23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18"/>
+      <c r="B3" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="4" spans="1:22" ht="23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="72" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
+      <c r="B4" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>108</v>
+      </c>
     </row>
-    <row r="5" spans="1:22" ht="23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
+      <c r="B5" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="6" spans="1:22" ht="23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
+      <c r="B6" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>110</v>
+      </c>
     </row>
-    <row r="7" spans="1:22" ht="23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
+      <c r="B7" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="8" spans="1:22" ht="23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="17">
         <v>7</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
+      <c r="B8" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>115</v>
+      </c>
     </row>
-    <row r="9" spans="1:22" ht="23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="17">
         <v>8</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
+      <c r="B9" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="10" spans="1:22" ht="23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="17">
         <v>9</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
+      <c r="B10" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="11" spans="1:22" ht="23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="24" x14ac:dyDescent="0.2">
       <c r="A11" s="17">
         <v>10</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
+      <c r="B11" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>118</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0 - Livrables/Audit-SEO.xlsx
+++ b/0 - Livrables/Audit-SEO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Samuel/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Samuel/Desktop/P4_Prigent_Samuel/0 - Livrables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EAC9B4F-C9AA-7B47-A226-FABEAC08F00E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF361779-2318-1249-B395-D036487D967C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="500" windowWidth="28760" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="143">
   <si>
     <t>Catégorie</t>
   </si>
@@ -240,9 +240,6 @@
   </si>
   <si>
     <t>Au seins d'une même page minimiser le nombre de liens pour une page "x" au strict minimum</t>
-  </si>
-  <si>
-    <t>XXX</t>
   </si>
   <si>
     <t>Le blackhat est une recommandations qui aujourd'hui est mal interprêté par les bots de google.
@@ -471,12 +468,24 @@
   <si>
     <t>Le input de "comment nous avez vous connu" était en email mais ce n'est pas le bon input</t>
   </si>
+  <si>
+    <t>https://www.seo-reference.net/optimisation/texte-cache.html</t>
+  </si>
+  <si>
+    <t>https://audreytips.com/4-balises-html-booster-seo/</t>
+  </si>
+  <si>
+    <t>http://tecfaetu.unige.ch/staf/staf9698/shubber/stafs/staf17/htmlliencbint.html</t>
+  </si>
+  <si>
+    <t>https://www.referenseo.com/blog/plusieurs-liens-vers-meme-page-article-blog/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -569,6 +578,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -600,10 +622,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -687,8 +710,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -905,7 +938,7 @@
   <dimension ref="A1:XFB130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -914,7 +947,7 @@
     <col min="2" max="2" width="31.28515625" style="14" customWidth="1"/>
     <col min="3" max="3" width="62.42578125" style="7" customWidth="1"/>
     <col min="4" max="4" width="53.42578125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="38.5703125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="44.85546875" style="7" customWidth="1"/>
     <col min="6" max="21" width="10.5703125" style="7" customWidth="1"/>
     <col min="22" max="16384" width="11.28515625" style="7"/>
   </cols>
@@ -961,7 +994,7 @@
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
     </row>
-    <row r="3" spans="1:21" ht="60" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="40" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>23</v>
       </c>
@@ -974,7 +1007,7 @@
       <c r="D3" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="33"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -992,7 +1025,7 @@
       <c r="T3" s="23"/>
       <c r="U3" s="23"/>
     </row>
-    <row r="4" spans="1:21" ht="60" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="40" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>23</v>
       </c>
@@ -1005,8 +1038,8 @@
       <c r="D4" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>67</v>
+      <c r="E4" s="31" t="s">
+        <v>140</v>
       </c>
       <c r="F4" s="23"/>
       <c r="G4" s="23"/>
@@ -1053,8 +1086,8 @@
       <c r="D6" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>67</v>
+      <c r="E6" s="31" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:21" s="8" customFormat="1" ht="20" x14ac:dyDescent="0.2">
@@ -1070,11 +1103,9 @@
       <c r="D7" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>67</v>
-      </c>
+      <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:21" ht="60" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="40" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>23</v>
       </c>
@@ -1082,14 +1113,16 @@
         <v>4</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>74</v>
+      <c r="E8" s="31" t="s">
+        <v>141</v>
       </c>
-      <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:21" ht="40" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" ht="60" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>23</v>
       </c>
@@ -1097,7 +1130,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>6</v>
@@ -1109,16 +1142,16 @@
         <v>23</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>67</v>
+      <c r="E10" s="32" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="60" x14ac:dyDescent="0.2">
@@ -1126,13 +1159,13 @@
         <v>23</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E11" s="9"/>
     </row>
@@ -1150,13 +1183,13 @@
         <v>18</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E13" s="9"/>
     </row>
@@ -1168,10 +1201,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E14" s="9"/>
     </row>
@@ -1183,10 +1216,10 @@
         <v>8</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E15" s="9"/>
     </row>
@@ -1195,13 +1228,13 @@
         <v>18</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E16" s="9"/>
     </row>
@@ -1210,10 +1243,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D17" s="30"/>
       <c r="E17" s="9"/>
@@ -1239,26 +1272,26 @@
         <v>18</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D18" s="30"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:16382" ht="80" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16382" ht="40" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E19" s="9"/>
     </row>
@@ -1270,10 +1303,10 @@
         <v>27</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E20" s="9"/>
     </row>
@@ -1282,13 +1315,13 @@
         <v>18</v>
       </c>
       <c r="B21" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="D21" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>92</v>
       </c>
       <c r="E21" s="9"/>
     </row>
@@ -1300,10 +1333,10 @@
         <v>30</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E22" s="9"/>
     </row>
@@ -17698,17 +17731,17 @@
         <v>28</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E24" s="9"/>
     </row>
-    <row r="25" spans="1:16382" ht="80" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16382" ht="60" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
         <v>28</v>
       </c>
@@ -17719,22 +17752,22 @@
         <v>32</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E25" s="9"/>
     </row>
-    <row r="26" spans="1:16382" ht="80" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16382" ht="100" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="D26" s="9" t="s">
         <v>101</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>102</v>
       </c>
       <c r="E26" s="9"/>
     </row>
@@ -17743,26 +17776,26 @@
         <v>28</v>
       </c>
       <c r="B27" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>105</v>
-      </c>
       <c r="D27" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E27" s="9"/>
     </row>
     <row r="28" spans="1:16382" ht="20" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
     </row>
-    <row r="29" spans="1:16382" s="8" customFormat="1" ht="40" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16382" s="8" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
         <v>25</v>
       </c>
@@ -17773,64 +17806,64 @@
         <v>2</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="1:16382" ht="100" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16382" ht="60" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E30" s="9"/>
     </row>
     <row r="31" spans="1:16382" ht="40" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B31" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>108</v>
-      </c>
       <c r="D31" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E31" s="9"/>
     </row>
     <row r="32" spans="1:16382" ht="60" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E32" s="9"/>
     </row>
     <row r="33" spans="1:5" ht="60" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>15</v>
@@ -17839,16 +17872,16 @@
     </row>
     <row r="34" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B34" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="D34" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>114</v>
       </c>
       <c r="E34" s="9"/>
     </row>
@@ -17857,70 +17890,70 @@
         <v>25</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E35" s="9"/>
     </row>
-    <row r="36" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="100" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E36" s="9"/>
     </row>
     <row r="37" spans="1:5" ht="60" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E37" s="9"/>
     </row>
     <row r="38" spans="1:5" ht="60" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B38" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="D38" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>131</v>
       </c>
       <c r="E38" s="9"/>
     </row>
     <row r="39" spans="1:5" ht="40" x14ac:dyDescent="0.2">
       <c r="A39" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>12</v>
@@ -17929,10 +17962,10 @@
     </row>
     <row r="40" spans="1:5" ht="40" x14ac:dyDescent="0.2">
       <c r="A40" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>13</v>
@@ -18554,6 +18587,11 @@
   <mergeCells count="1">
     <mergeCell ref="D16:D18"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{8B98126D-564E-234F-939B-F1AB0C8737DC}"/>
+    <hyperlink ref="E8" r:id="rId2" xr:uid="{282BA8B8-41D8-E344-9E0F-BEC9C8FDC159}"/>
+    <hyperlink ref="E6" r:id="rId3" xr:uid="{773BE3AC-E1CA-664F-AC1D-C05A35363D10}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>

--- a/0 - Livrables/Audit-SEO.xlsx
+++ b/0 - Livrables/Audit-SEO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Samuel/Desktop/P4_Prigent_Samuel/0 - Livrables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Samuel/Desktop/Projets OC/Projet 4 - La Chouette Agence/P4_Prigent_Samuel/0 - Livrables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF361779-2318-1249-B395-D036487D967C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915B05DE-4D44-0144-B0D9-27998E27F250}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="500" windowWidth="28760" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -707,9 +707,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -717,6 +714,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1007,7 +1007,7 @@
       <c r="D3" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="33"/>
+      <c r="E3" s="32"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -1038,7 +1038,7 @@
       <c r="D4" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="30" t="s">
         <v>140</v>
       </c>
       <c r="F4" s="23"/>
@@ -1086,7 +1086,7 @@
       <c r="D6" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="30" t="s">
         <v>142</v>
       </c>
     </row>
@@ -1118,7 +1118,7 @@
       <c r="D8" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="30" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
       <c r="D10" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="31" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       <c r="C16" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="33" t="s">
         <v>80</v>
       </c>
       <c r="E16" s="9"/>
@@ -1248,7 +1248,7 @@
       <c r="C17" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="30"/>
+      <c r="D17" s="33"/>
       <c r="E17" s="9"/>
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
@@ -1277,7 +1277,7 @@
       <c r="C18" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="30"/>
+      <c r="D18" s="33"/>
       <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:16382" ht="40" x14ac:dyDescent="0.2">
